--- a/biology/Botanique/Bupleurum_tenuissimum/Bupleurum_tenuissimum.xlsx
+++ b/biology/Botanique/Bupleurum_tenuissimum/Bupleurum_tenuissimum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bupleurum tenuissimum, de noms communs Buplèvre très grêle, Buplèvre grêle, Buplèvre menu, Buplèvre tenu ou Percefeuille très grêle, est une espèce de plantes annuelle de la famille des Apiaceae et du genre Bupleurum.
 </t>
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bupleurum vient « du grec bous, bœuf, pleuron, plèvre : allusion à la consistance plus ou moins coriace des feuilles. » (Coste)
-« Grec boupleuron, côte de bœuf, nom de plante indéterminée. »(Fournier)[1].
+« Grec boupleuron, côte de bœuf, nom de plante indéterminée. »(Fournier).
 </t>
         </is>
       </c>
@@ -545,47 +559,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Le Buplèvre très grêle est une plante annuelle. Sa tige est grêle, rameuse, de 10 à 60 cm, souvent glauque. Les feuilles basilaires sont courtes, lancéolées, pétiolulées, les caulinaires courtes, sessiles, lancéolées-linéaires[2].
-Appareil reproducteur
-Les inflorescences sont axillaires, en petites ombelles simples, souvent à 2–8 rayons courts et inégaux, parfois même, surtout les terminales, réduites à une seule ombellule ; l'involucre est à 1 à 5 bractées inégales et très étroites, acuminées, trinervées, plus courtes que les rayons ; l'involucelle à 1 à 5 bractéoles aiguës, plus longues que les fleurs. Les fleurs sont jaunes et petites. Le fruit est un diakène subglobuleux, à côtes saillantes plus ou moins ondulées, couvert de petits granules tuberculeux. La floraison se déroule de juillet à septembre[2] et octobre sur le littoral méditerranéen[3].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Buplèvre très grêle est une plante annuelle. Sa tige est grêle, rameuse, de 10 à 60 cm, souvent glauque. Les feuilles basilaires sont courtes, lancéolées, pétiolulées, les caulinaires courtes, sessiles, lancéolées-linéaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bupleurum_tenuissimum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bupleurum_tenuissimum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inflorescences sont axillaires, en petites ombelles simples, souvent à 2–8 rayons courts et inégaux, parfois même, surtout les terminales, réduites à une seule ombellule ; l'involucre est à 1 à 5 bractées inégales et très étroites, acuminées, trinervées, plus courtes que les rayons ; l'involucelle à 1 à 5 bractéoles aiguës, plus longues que les fleurs. Les fleurs sont jaunes et petites. Le fruit est un diakène subglobuleux, à côtes saillantes plus ou moins ondulées, couvert de petits granules tuberculeux. La floraison se déroule de juillet à septembre et octobre sur le littoral méditerranéen.
 			Aspect général.
 			Feuille (détail).
 			Inflorescences.
 			Fruits.
-Confusions possibles
-Il existe d'autres petits Buplèvres annuels à feuilles étroites, à ombelles réduites, et ayant un peu la même écologie. Cependant, l'ornementation des fruits ne laisse aucun doute, à condition d'avoir des échantillons complets[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bupleurum_tenuissimum</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bupleurum_tenuissimum</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Habitat et écologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Buplèvre très grêle est thérophyte[2],[4]. Il peut être abondant, en particulier dans les groupements d'arrière-dunes. Il pousse dans les pelouses sablonneuses, surtout calcaires, étant particulièrement fréquent sur les arrière-dunes ; on en trouve aussi dans les prairies maritimes plus ou moins saumâtres[2].
 </t>
         </is>
       </c>
@@ -611,12 +632,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est une espèce méditerranéo-atlantique, répandue de la Péninsule ibérique à la Crimée et au Proche-Orient, au nord jusque dans le sud de la Suède (île de Gotland) et jusqu'à la Russie centrale ; aussi au Maghreb[2]. Elle pousse jusqu'à une altitude de 600 m[5].
+          <t>Confusions possibles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe d'autres petits Buplèvres annuels à feuilles étroites, à ombelles réduites, et ayant un peu la même écologie. Cependant, l'ornementation des fruits ne laisse aucun doute, à condition d'avoir des échantillons complets.
 </t>
         </is>
       </c>
@@ -642,12 +669,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Menaces et conservation</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Buplèvre très grêle semble régresser de façon très générale, depuis un siècle, dans ses stations de l'intérieur des terres ; il résisterait mieux sur le littoral. L'espèce est menacée par la dégradation généralisée des pelouses sèches dans l'intérieur des terres (arrêt du pâturage extensif, décapage, reboisement artificiel ou naturel)[2]. En France, l'espèce est classée « en danger critique d'extinction » (CR) en Auvergne, Basse Normandie, Bourgogne, Centre Val de Loire, Lorraine et Midi Pyrénées[6].
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Buplèvre très grêle est thérophyte,. Il peut être abondant, en particulier dans les groupements d'arrière-dunes. Il pousse dans les pelouses sablonneuses, surtout calcaires, étant particulièrement fréquent sur les arrière-dunes ; on en trouve aussi dans les prairies maritimes plus ou moins saumâtres.
 </t>
         </is>
       </c>
@@ -673,15 +702,121 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce méditerranéo-atlantique, répandue de la Péninsule ibérique à la Crimée et au Proche-Orient, au nord jusque dans le sud de la Suède (île de Gotland) et jusqu'à la Russie centrale ; aussi au Maghreb. Elle pousse jusqu'à une altitude de 600 m.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bupleurum_tenuissimum</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bupleurum_tenuissimum</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Menaces et conservation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Buplèvre très grêle semble régresser de façon très générale, depuis un siècle, dans ses stations de l'intérieur des terres ; il résisterait mieux sur le littoral. L'espèce est menacée par la dégradation généralisée des pelouses sèches dans l'intérieur des terres (arrêt du pâturage extensif, décapage, reboisement artificiel ou naturel). En France, l'espèce est classée « en danger critique d'extinction » (CR) en Auvergne, Basse Normandie, Bourgogne, Centre Val de Loire, Lorraine et Midi Pyrénées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bupleurum_tenuissimum</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bupleurum_tenuissimum</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sous-espèce
-Bupleurum tenuissimum L., 1753 subsp. tenuissimum syn. Odontites tenuissima (L.) Spreng[7].
-Synonymes
-Agostana tenuissima (L.) Gray, 1821
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sous-espèce</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bupleurum tenuissimum L., 1753 subsp. tenuissimum syn. Odontites tenuissima (L.) Spreng.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bupleurum_tenuissimum</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bupleurum_tenuissimum</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Agostana tenuissima (L.) Gray, 1821
 Bupleurum columnae Guss., 1827
 Bupleurum pollichii C.C.Gmel., 1805
 Bupleurum tenue Salisb., 1796
@@ -691,7 +826,7 @@
 Odontites tenuissimus (L.) Spreng., 1813
 Tenoria tenuis Bubani, 1899
 Trachypleurum tenuissimum (L.) Fuss, 1866
-Zigara tenuis Raf., 1840[6]</t>
+Zigara tenuis Raf., 1840</t>
         </is>
       </c>
     </row>
